--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1187825.928139995</v>
+        <v>1187424.038823735</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241946.9810785741</v>
+        <v>241946.9810785735</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736563</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>103.925493355654</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.6356180227666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>162.1557740214505</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -804,7 +804,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>91.02013434634716</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>164.7849639285086</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>95.41725175393265</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>111.1131427964336</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>215.0714716648774</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -981,19 +981,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>74.2816498343344</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>159.8943863434442</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>66.25816359800196</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>57.03803642596217</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>231.3757635055197</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>49.48975741812598</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>89.42903711951146</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>229.5817002068445</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.480376214104</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.86215797067688</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>264.1545617992018</v>
       </c>
       <c r="C11" t="n">
-        <v>268.8129305257623</v>
+        <v>268.8129305257625</v>
       </c>
       <c r="D11" t="n">
-        <v>169.3357600164251</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>281.5363721401959</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>300.708188228173</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>302.6414561255955</v>
+        <v>302.6414561255957</v>
       </c>
       <c r="H11" t="n">
-        <v>220.1915711039055</v>
+        <v>220.1915711039056</v>
       </c>
       <c r="I11" t="n">
-        <v>61.7875362485336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>76.05519506119123</v>
+        <v>76.05519506119137</v>
       </c>
       <c r="T11" t="n">
-        <v>112.8138662515406</v>
+        <v>112.8138662515407</v>
       </c>
       <c r="U11" t="n">
-        <v>143.0349923683875</v>
+        <v>143.0349923683877</v>
       </c>
       <c r="V11" t="n">
-        <v>224.3079908082597</v>
+        <v>224.3079908082599</v>
       </c>
       <c r="W11" t="n">
-        <v>249.6080902862166</v>
+        <v>249.6080902862168</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>268.9083485189634</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>280.3049463151622</v>
       </c>
     </row>
     <row r="12">
@@ -1458,13 +1458,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>118.4200671003687</v>
       </c>
       <c r="G12" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>84.01168590951281</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.41832444277767</v>
+        <v>72.41832444277782</v>
       </c>
       <c r="C13" t="n">
-        <v>58.61831928817816</v>
+        <v>58.6183192881783</v>
       </c>
       <c r="D13" t="n">
-        <v>42.23968368575655</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.187433541536</v>
+        <v>41.18743354153614</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.65435786972245</v>
       </c>
       <c r="G13" t="n">
-        <v>57.92906059107014</v>
+        <v>57.92906059107028</v>
       </c>
       <c r="H13" t="n">
-        <v>48.47742821376056</v>
+        <v>25.74572146788357</v>
       </c>
       <c r="I13" t="n">
-        <v>15.40804045510003</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.72507301700736</v>
       </c>
       <c r="S13" t="n">
-        <v>102.271174415591</v>
+        <v>102.2711744155911</v>
       </c>
       <c r="T13" t="n">
-        <v>121.5456730977196</v>
+        <v>121.5456730977197</v>
       </c>
       <c r="U13" t="n">
-        <v>175.0168465610328</v>
+        <v>175.0168465610329</v>
       </c>
       <c r="V13" t="n">
-        <v>148.8264608424033</v>
+        <v>148.8264608424034</v>
       </c>
       <c r="W13" t="n">
-        <v>173.9933469130165</v>
+        <v>173.9933469130167</v>
       </c>
       <c r="X13" t="n">
-        <v>119.6384489088196</v>
+        <v>119.6384489088198</v>
       </c>
       <c r="Y13" t="n">
-        <v>110.5133166648873</v>
+        <v>110.5133166648875</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>280.8016135680806</v>
+        <v>280.8016135680807</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.8129305257624</v>
       </c>
       <c r="D14" t="n">
-        <v>259.7942345702903</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>281.5363721401959</v>
       </c>
       <c r="F14" t="n">
-        <v>300.708188228173</v>
+        <v>300.7081882281731</v>
       </c>
       <c r="G14" t="n">
-        <v>302.6414561255955</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>220.1915711039055</v>
       </c>
       <c r="I14" t="n">
-        <v>61.7875362485336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>76.05519506119127</v>
       </c>
       <c r="T14" t="n">
         <v>112.8138662515406</v>
       </c>
       <c r="U14" t="n">
-        <v>143.0349923683875</v>
+        <v>143.0349923683876</v>
       </c>
       <c r="V14" t="n">
-        <v>167.2191722443231</v>
+        <v>208.3627811117704</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>249.6080902862167</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>268.9083485189633</v>
       </c>
       <c r="Y14" t="n">
-        <v>280.304946315162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>44.81595955085295</v>
       </c>
       <c r="H15" t="n">
-        <v>84.01168590951281</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.41832444277767</v>
+        <v>72.41832444277772</v>
       </c>
       <c r="C16" t="n">
-        <v>58.61831928817816</v>
+        <v>58.6183192881782</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.23968368575659</v>
       </c>
       <c r="E16" t="n">
-        <v>26.65056126679445</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>41.65435786972235</v>
       </c>
       <c r="G16" t="n">
-        <v>57.92906059107014</v>
+        <v>57.92906059107018</v>
       </c>
       <c r="H16" t="n">
-        <v>48.47742821376056</v>
+        <v>24.69347132366536</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45952339858991</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>38.72507301700722</v>
+        <v>38.72507301700726</v>
       </c>
       <c r="S16" t="n">
         <v>102.271174415591</v>
@@ -1825,13 +1825,13 @@
         <v>148.8264608424033</v>
       </c>
       <c r="W16" t="n">
-        <v>173.9933469130165</v>
+        <v>173.9933469130166</v>
       </c>
       <c r="X16" t="n">
-        <v>119.6384489088196</v>
+        <v>119.6384489088197</v>
       </c>
       <c r="Y16" t="n">
-        <v>110.5133166648873</v>
+        <v>110.5133166648874</v>
       </c>
     </row>
     <row r="17">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>50.72160464352908</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1974,7 +1974,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>104.1729973695789</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
@@ -2175,7 +2175,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>84.01168590951323</v>
+        <v>84.01168590951369</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>112.5144220076917</v>
       </c>
       <c r="H24" t="n">
-        <v>16.31322345267451</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
-        <v>224.0167345776032</v>
+        <v>16.89592230717206</v>
       </c>
       <c r="F26" t="n">
         <v>296.5795132747226</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
         <v>276.1762713617116</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2795,22 +2795,22 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>252.1306345456053</v>
       </c>
       <c r="G29" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.421443549925471</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
@@ -2852,13 +2852,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X29" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3010,13 +3010,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W31" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X31" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.7898580267163</v>
+        <v>248.7898580267162</v>
       </c>
       <c r="C32" t="n">
-        <v>236.801174984398</v>
+        <v>236.8011749843979</v>
       </c>
       <c r="D32" t="n">
-        <v>227.782479028926</v>
+        <v>227.7824790289259</v>
       </c>
       <c r="E32" t="n">
-        <v>249.5246165988315</v>
+        <v>249.5246165988314</v>
       </c>
       <c r="F32" t="n">
-        <v>268.6964326868087</v>
+        <v>268.6964326868086</v>
       </c>
       <c r="G32" t="n">
         <v>270.6297005842312</v>
@@ -3047,7 +3047,7 @@
         <v>188.1798155625411</v>
       </c>
       <c r="I32" t="n">
-        <v>29.77578070716928</v>
+        <v>29.77578070716919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>44.0434395198269</v>
+        <v>44.04343951982682</v>
       </c>
       <c r="T32" t="n">
-        <v>80.80211071017627</v>
+        <v>80.80211071017618</v>
       </c>
       <c r="U32" t="n">
-        <v>111.0232368270232</v>
+        <v>111.0232368270231</v>
       </c>
       <c r="V32" t="n">
-        <v>192.2962352668954</v>
+        <v>192.2962352668953</v>
       </c>
       <c r="W32" t="n">
-        <v>217.5963347448523</v>
+        <v>217.5963347448522</v>
       </c>
       <c r="X32" t="n">
-        <v>236.8965929775989</v>
+        <v>236.8965929775988</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.2931907737977</v>
+        <v>248.2931907737976</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133621</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.40656890141335</v>
+        <v>40.40656890141327</v>
       </c>
       <c r="C34" t="n">
-        <v>26.60656374681383</v>
+        <v>26.60656374681375</v>
       </c>
       <c r="D34" t="n">
-        <v>10.22792814439222</v>
+        <v>10.22792814439214</v>
       </c>
       <c r="E34" t="n">
-        <v>9.175678000171672</v>
+        <v>9.175678000171587</v>
       </c>
       <c r="F34" t="n">
-        <v>9.642602328357981</v>
+        <v>9.642602328357896</v>
       </c>
       <c r="G34" t="n">
-        <v>25.91730504970582</v>
+        <v>25.91730504970573</v>
       </c>
       <c r="H34" t="n">
-        <v>16.46567267239624</v>
+        <v>16.46567267239615</v>
       </c>
       <c r="I34" t="n">
-        <v>1.447767857225585</v>
+        <v>1.4477678572255</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.713317475642896</v>
+        <v>6.71331747564281</v>
       </c>
       <c r="S34" t="n">
-        <v>70.25941887422664</v>
+        <v>70.25941887422655</v>
       </c>
       <c r="T34" t="n">
-        <v>89.53391755635528</v>
+        <v>89.53391755635519</v>
       </c>
       <c r="U34" t="n">
         <v>143.0050910196684</v>
@@ -3247,13 +3247,13 @@
         <v>116.8147053010389</v>
       </c>
       <c r="W34" t="n">
-        <v>141.9815913716522</v>
+        <v>141.9815913716521</v>
       </c>
       <c r="X34" t="n">
-        <v>87.62669336745532</v>
+        <v>87.62669336745523</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.501561123523</v>
+        <v>78.50156112352292</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>53.13297117133634</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841211</v>
       </c>
       <c r="G39" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326566</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223.974038980382</v>
+        <v>223.9740389803821</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G44" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835063</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349269</v>
       </c>
       <c r="T44" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384205</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068901</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W44" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.4773717274634</v>
+        <v>223.4773717274635</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507914</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479621</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371605</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789237</v>
+        <v>45.44359982789243</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002106</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470467</v>
+        <v>91.99888625470473</v>
       </c>
       <c r="W46" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112105</v>
+        <v>62.8108743211211</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718879</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62.13563674553902</v>
+        <v>903.9725610024257</v>
       </c>
       <c r="C2" t="n">
-        <v>62.13563674553902</v>
+        <v>903.9725610024257</v>
       </c>
       <c r="D2" t="n">
-        <v>62.13563674553902</v>
+        <v>903.9725610024257</v>
       </c>
       <c r="E2" t="n">
-        <v>62.13563674553902</v>
+        <v>903.9725610024257</v>
       </c>
       <c r="F2" t="n">
-        <v>52.0248500961134</v>
+        <v>893.8617743530001</v>
       </c>
       <c r="G2" t="n">
-        <v>39.96126759070543</v>
+        <v>477.7577878071881</v>
       </c>
       <c r="H2" t="n">
-        <v>39.96126759070543</v>
+        <v>144.9365134044974</v>
       </c>
       <c r="I2" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J2" t="n">
         <v>111.9598118635111</v>
       </c>
       <c r="K2" t="n">
-        <v>352.1001839082938</v>
+        <v>251.0137468940979</v>
       </c>
       <c r="L2" t="n">
-        <v>699.9855569932402</v>
+        <v>598.8991199790441</v>
       </c>
       <c r="M2" t="n">
-        <v>1093.224723246328</v>
+        <v>992.138286232132</v>
       </c>
       <c r="N2" t="n">
-        <v>1471.556081934044</v>
+        <v>1370.469644919848</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.560666406878</v>
+        <v>1675.474229392682</v>
       </c>
       <c r="P2" t="n">
-        <v>1998.063379535271</v>
+        <v>1903.631125848735</v>
       </c>
       <c r="Q2" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R2" t="n">
         <v>1907.425093031125</v>
@@ -4361,19 +4361,19 @@
         <v>1495.83717139249</v>
       </c>
       <c r="U2" t="n">
-        <v>1495.83717139249</v>
+        <v>1240.951835106484</v>
       </c>
       <c r="V2" t="n">
-        <v>1158.857897288431</v>
+        <v>903.9725610024257</v>
       </c>
       <c r="W2" t="n">
-        <v>796.3229671460322</v>
+        <v>903.9725610024257</v>
       </c>
       <c r="X2" t="n">
-        <v>414.2928266675255</v>
+        <v>903.9725610024257</v>
       </c>
       <c r="Y2" t="n">
-        <v>62.13563674553902</v>
+        <v>903.9725610024257</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>618.7317183239163</v>
+        <v>413.431560103921</v>
       </c>
       <c r="C3" t="n">
-        <v>618.7317183239163</v>
+        <v>413.431560103921</v>
       </c>
       <c r="D3" t="n">
-        <v>618.7317183239163</v>
+        <v>274.5929230941331</v>
       </c>
       <c r="E3" t="n">
-        <v>471.7037083807875</v>
+        <v>274.5929230941331</v>
       </c>
       <c r="F3" t="n">
-        <v>337.0099103306618</v>
+        <v>139.8991250440074</v>
       </c>
       <c r="G3" t="n">
-        <v>208.2814103539464</v>
+        <v>139.8991250440074</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3435529006444</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="I3" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J3" t="n">
-        <v>39.96126759070543</v>
+        <v>100.2154141238116</v>
       </c>
       <c r="K3" t="n">
-        <v>39.96126759070543</v>
+        <v>329.7059666840003</v>
       </c>
       <c r="L3" t="n">
-        <v>405.783112760821</v>
+        <v>660.9625261796031</v>
       </c>
       <c r="M3" t="n">
-        <v>890.8164662710475</v>
+        <v>1145.99587968983</v>
       </c>
       <c r="N3" t="n">
-        <v>1385.337152706027</v>
+        <v>1145.99587968983</v>
       </c>
       <c r="O3" t="n">
-        <v>1777.537103490178</v>
+        <v>1538.19583047398</v>
       </c>
       <c r="P3" t="n">
-        <v>1998.063379535271</v>
+        <v>1840.291749749678</v>
       </c>
       <c r="Q3" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R3" t="n">
-        <v>1938.279110630217</v>
+        <v>1938.279110630218</v>
       </c>
       <c r="S3" t="n">
-        <v>1785.479623642957</v>
+        <v>1785.479623642958</v>
       </c>
       <c r="T3" t="n">
         <v>1596.794519808943</v>
       </c>
       <c r="U3" t="n">
-        <v>1378.299727407253</v>
+        <v>1433.000808676165</v>
       </c>
       <c r="V3" t="n">
-        <v>1149.904104855587</v>
+        <v>1204.605186124499</v>
       </c>
       <c r="W3" t="n">
-        <v>908.5882360888967</v>
+        <v>963.2893173578086</v>
       </c>
       <c r="X3" t="n">
-        <v>710.6712479666912</v>
+        <v>765.3723292356032</v>
       </c>
       <c r="Y3" t="n">
-        <v>618.7317183239163</v>
+        <v>572.851002885182</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="C4" t="n">
-        <v>405.5710543229928</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="D4" t="n">
-        <v>252.4991611507556</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="E4" t="n">
-        <v>252.4991611507556</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="F4" t="n">
-        <v>100.0185061765327</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="G4" t="n">
-        <v>100.0185061765327</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="H4" t="n">
-        <v>100.0185061765327</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="I4" t="n">
-        <v>100.0185061765327</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J4" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="K4" t="n">
         <v>73.56545533534884</v>
@@ -4510,28 +4510,28 @@
         <v>572.0205128366379</v>
       </c>
       <c r="R4" t="n">
-        <v>572.0205128366379</v>
+        <v>422.4987314510161</v>
       </c>
       <c r="S4" t="n">
-        <v>572.0205128366379</v>
+        <v>422.4987314510161</v>
       </c>
       <c r="T4" t="n">
-        <v>572.0205128366379</v>
+        <v>422.4987314510161</v>
       </c>
       <c r="U4" t="n">
-        <v>572.0205128366379</v>
+        <v>422.4987314510161</v>
       </c>
       <c r="V4" t="n">
-        <v>572.0205128366379</v>
+        <v>422.4987314510161</v>
       </c>
       <c r="W4" t="n">
-        <v>572.0205128366379</v>
+        <v>136.3423299684152</v>
       </c>
       <c r="X4" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.1247508055104</v>
+        <v>816.8933601855081</v>
       </c>
       <c r="C5" t="n">
-        <v>335.1247508055104</v>
+        <v>434.9596015183155</v>
       </c>
       <c r="D5" t="n">
-        <v>335.1247508055104</v>
+        <v>62.13563674553902</v>
       </c>
       <c r="E5" t="n">
-        <v>335.1247508055104</v>
+        <v>62.13563674553902</v>
       </c>
       <c r="F5" t="n">
-        <v>325.0139641560848</v>
+        <v>52.0248500961134</v>
       </c>
       <c r="G5" t="n">
-        <v>212.7784663819094</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="H5" t="n">
-        <v>212.7784663819094</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="I5" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J5" t="n">
         <v>111.9598118635111</v>
@@ -4583,10 +4583,10 @@
         <v>1776.560666406878</v>
       </c>
       <c r="P5" t="n">
-        <v>1998.063379535271</v>
+        <v>1903.631125848735</v>
       </c>
       <c r="Q5" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R5" t="n">
         <v>1907.425093031125</v>
@@ -4598,19 +4598,19 @@
         <v>1683.066146762136</v>
       </c>
       <c r="U5" t="n">
-        <v>1428.18081047613</v>
+        <v>1428.180810476131</v>
       </c>
       <c r="V5" t="n">
-        <v>1091.201536372071</v>
+        <v>1428.180810476131</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6666062296724</v>
+        <v>1210.936899703527</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6666062296724</v>
+        <v>1210.936899703527</v>
       </c>
       <c r="Y5" t="n">
-        <v>335.1247508055104</v>
+        <v>1210.936899703527</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.2740280927495</v>
+        <v>575.1352328629663</v>
       </c>
       <c r="C6" t="n">
-        <v>757.5703553337042</v>
+        <v>413.431560103921</v>
       </c>
       <c r="D6" t="n">
-        <v>618.7317183239163</v>
+        <v>274.5929230941331</v>
       </c>
       <c r="E6" t="n">
-        <v>471.7037083807875</v>
+        <v>274.5929230941331</v>
       </c>
       <c r="F6" t="n">
-        <v>337.0099103306618</v>
+        <v>139.8991250440074</v>
       </c>
       <c r="G6" t="n">
-        <v>208.2814103539464</v>
+        <v>139.8991250440074</v>
       </c>
       <c r="H6" t="n">
-        <v>108.3435529006444</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="I6" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J6" t="n">
-        <v>39.96126759070543</v>
+        <v>100.2154141238116</v>
       </c>
       <c r="K6" t="n">
-        <v>269.4518201508941</v>
+        <v>329.7059666840003</v>
       </c>
       <c r="L6" t="n">
-        <v>635.2736653210097</v>
+        <v>695.527811854116</v>
       </c>
       <c r="M6" t="n">
-        <v>651.4751932548494</v>
+        <v>1180.561165364342</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.995879689829</v>
+        <v>1448.091798965527</v>
       </c>
       <c r="O6" t="n">
-        <v>1538.19583047398</v>
+        <v>1840.291749749678</v>
       </c>
       <c r="P6" t="n">
-        <v>1840.291749749677</v>
+        <v>1840.291749749678</v>
       </c>
       <c r="Q6" t="n">
-        <v>1998.063379535271</v>
+        <v>1998.063379535272</v>
       </c>
       <c r="R6" t="n">
-        <v>1938.279110630217</v>
+        <v>1938.279110630218</v>
       </c>
       <c r="S6" t="n">
-        <v>1785.479623642957</v>
+        <v>1785.479623642958</v>
       </c>
       <c r="T6" t="n">
-        <v>1710.447654113327</v>
+        <v>1596.794519808943</v>
       </c>
       <c r="U6" t="n">
-        <v>1710.447654113327</v>
+        <v>1435.285038653949</v>
       </c>
       <c r="V6" t="n">
-        <v>1710.447654113327</v>
+        <v>1206.889416102283</v>
       </c>
       <c r="W6" t="n">
-        <v>1469.131785346637</v>
+        <v>965.5735473355929</v>
       </c>
       <c r="X6" t="n">
-        <v>1271.214797224432</v>
+        <v>767.6565592133875</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.69347087401</v>
+        <v>575.1352328629663</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="C7" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="D7" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="E7" t="n">
-        <v>420.0114985979567</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="F7" t="n">
-        <v>420.0114985979567</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="G7" t="n">
-        <v>251.0917499658067</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="H7" t="n">
-        <v>184.1643119880269</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="I7" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="J7" t="n">
-        <v>39.96126759070543</v>
+        <v>39.96126759070544</v>
       </c>
       <c r="K7" t="n">
         <v>73.56545533534884</v>
@@ -4750,25 +4750,25 @@
         <v>572.0205128366379</v>
       </c>
       <c r="S7" t="n">
-        <v>572.0205128366379</v>
+        <v>358.3107502403254</v>
       </c>
       <c r="T7" t="n">
-        <v>572.0205128366379</v>
+        <v>358.3107502403254</v>
       </c>
       <c r="U7" t="n">
-        <v>572.0205128366379</v>
+        <v>358.3107502403254</v>
       </c>
       <c r="V7" t="n">
-        <v>572.0205128366379</v>
+        <v>97.57544579874804</v>
       </c>
       <c r="W7" t="n">
-        <v>572.0205128366379</v>
+        <v>97.57544579874804</v>
       </c>
       <c r="X7" t="n">
-        <v>572.0205128366379</v>
+        <v>97.57544579874804</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.0205128366379</v>
+        <v>39.96126759070544</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1439.882352021938</v>
+        <v>818.9563486960019</v>
       </c>
       <c r="C8" t="n">
-        <v>1439.882352021938</v>
+        <v>437.0225900288092</v>
       </c>
       <c r="D8" t="n">
-        <v>1439.882352021938</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="E8" t="n">
-        <v>1045.096632128045</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U8" t="n">
-        <v>1776.861626125997</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V8" t="n">
-        <v>1439.882352021938</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="W8" t="n">
-        <v>1439.882352021938</v>
+        <v>868.9460026537049</v>
       </c>
       <c r="X8" t="n">
-        <v>1439.882352021938</v>
+        <v>818.9563486960019</v>
       </c>
       <c r="Y8" t="n">
-        <v>1439.882352021938</v>
+        <v>818.9563486960019</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.2993471409599</v>
+        <v>471.2950658467479</v>
       </c>
       <c r="C9" t="n">
-        <v>530.9669864141806</v>
+        <v>309.5913930877026</v>
       </c>
       <c r="D9" t="n">
-        <v>392.1283494043927</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="E9" t="n">
-        <v>245.1003394612639</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4884,22 +4884,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4920,13 +4920,13 @@
         <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1021.152823100635</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>823.23583497843</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>630.7145086280088</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>127.1947855664981</v>
+        <v>55.64079773160731</v>
       </c>
       <c r="C10" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4987,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V10" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W10" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X10" t="n">
-        <v>127.1947855664981</v>
+        <v>55.64079773160731</v>
       </c>
       <c r="Y10" t="n">
-        <v>127.1947855664981</v>
+        <v>55.64079773160731</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1670.923744675432</v>
+        <v>849.3400511064135</v>
       </c>
       <c r="C11" t="n">
-        <v>1399.395532023146</v>
+        <v>577.8118384541281</v>
       </c>
       <c r="D11" t="n">
-        <v>1228.349309784332</v>
+        <v>577.8118384541281</v>
       </c>
       <c r="E11" t="n">
-        <v>943.9691359053465</v>
+        <v>577.8118384541281</v>
       </c>
       <c r="F11" t="n">
-        <v>640.2234912304243</v>
+        <v>577.8118384541281</v>
       </c>
       <c r="G11" t="n">
-        <v>334.5250506995197</v>
+        <v>272.1133979232234</v>
       </c>
       <c r="H11" t="n">
-        <v>112.1093223117364</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="I11" t="n">
         <v>49.69766953543986</v>
       </c>
       <c r="J11" t="n">
-        <v>229.9046894574563</v>
+        <v>229.9046894574562</v>
       </c>
       <c r="K11" t="n">
-        <v>578.2535371514498</v>
+        <v>578.2535371514496</v>
       </c>
       <c r="L11" t="n">
-        <v>1034.347385885607</v>
+        <v>1034.347385885606</v>
       </c>
       <c r="M11" t="n">
-        <v>1427.586552138695</v>
+        <v>1427.586552138694</v>
       </c>
       <c r="N11" t="n">
         <v>1805.91791082641</v>
       </c>
       <c r="O11" t="n">
-        <v>2110.922495299244</v>
+        <v>2142.920435582907</v>
       </c>
       <c r="P11" t="n">
-        <v>2339.079391755298</v>
+        <v>2371.07733203896</v>
       </c>
       <c r="Q11" t="n">
-        <v>2465.509585725496</v>
+        <v>2465.509585725497</v>
       </c>
       <c r="R11" t="n">
         <v>2484.883476771993</v>
@@ -5072,19 +5072,19 @@
         <v>2294.106647163173</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.626856892075</v>
+        <v>2149.626856892074</v>
       </c>
       <c r="V11" t="n">
         <v>1923.053128802923</v>
       </c>
       <c r="W11" t="n">
-        <v>1670.923744675432</v>
+        <v>1670.923744675431</v>
       </c>
       <c r="X11" t="n">
-        <v>1670.923744675432</v>
+        <v>1399.299150211832</v>
       </c>
       <c r="Y11" t="n">
-        <v>1670.923744675432</v>
+        <v>1116.162840802577</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>845.5505760717306</v>
+        <v>845.550576071731</v>
       </c>
       <c r="C12" t="n">
-        <v>683.8469033126853</v>
+        <v>683.8469033126858</v>
       </c>
       <c r="D12" t="n">
-        <v>545.0082663028974</v>
+        <v>545.0082663028978</v>
       </c>
       <c r="E12" t="n">
-        <v>397.9802563597686</v>
+        <v>397.980256359769</v>
       </c>
       <c r="F12" t="n">
-        <v>263.286458309643</v>
+        <v>278.3640269654572</v>
       </c>
       <c r="G12" t="n">
-        <v>134.5579583329275</v>
+        <v>149.6355269887418</v>
       </c>
       <c r="H12" t="n">
         <v>49.69766953543986</v>
@@ -5142,22 +5142,22 @@
         <v>2484.883476771993</v>
       </c>
       <c r="R12" t="n">
-        <v>2425.099207866938</v>
+        <v>2425.099207866939</v>
       </c>
       <c r="S12" t="n">
         <v>2272.299720879679</v>
       </c>
       <c r="T12" t="n">
-        <v>2083.614617045664</v>
+        <v>2083.614617045665</v>
       </c>
       <c r="U12" t="n">
-        <v>1865.119824643974</v>
+        <v>1865.119824643975</v>
       </c>
       <c r="V12" t="n">
-        <v>1636.724202092308</v>
+        <v>1636.724202092309</v>
       </c>
       <c r="W12" t="n">
-        <v>1395.408333325618</v>
+        <v>1395.408333325619</v>
       </c>
       <c r="X12" t="n">
         <v>1197.491345203413</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>316.2228874903905</v>
+        <v>277.1066521196738</v>
       </c>
       <c r="C13" t="n">
-        <v>257.0124639669784</v>
+        <v>217.8962285962613</v>
       </c>
       <c r="D13" t="n">
-        <v>214.3461168096487</v>
+        <v>217.8962285962613</v>
       </c>
       <c r="E13" t="n">
-        <v>172.7426485858748</v>
+        <v>176.2927603724874</v>
       </c>
       <c r="F13" t="n">
-        <v>172.7426485858748</v>
+        <v>134.2176514131718</v>
       </c>
       <c r="G13" t="n">
-        <v>114.2284459686322</v>
+        <v>75.70344879592903</v>
       </c>
       <c r="H13" t="n">
-        <v>65.26134676281363</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="I13" t="n">
         <v>49.69766953543986</v>
       </c>
       <c r="J13" t="n">
-        <v>99.04404564668124</v>
+        <v>99.04404564668118</v>
       </c>
       <c r="K13" t="n">
-        <v>240.8567090405353</v>
+        <v>240.8567090405352</v>
       </c>
       <c r="L13" t="n">
-        <v>449.6722640900056</v>
+        <v>449.6722640900053</v>
       </c>
       <c r="M13" t="n">
-        <v>675.874245866818</v>
+        <v>675.8742458668177</v>
       </c>
       <c r="N13" t="n">
-        <v>902.5050632656291</v>
+        <v>902.5050632656287</v>
       </c>
       <c r="O13" t="n">
-        <v>1109.17718541053</v>
+        <v>1109.177185410529</v>
       </c>
       <c r="P13" t="n">
-        <v>1280.354144787879</v>
+        <v>1280.354144787877</v>
       </c>
       <c r="Q13" t="n">
-        <v>1350.79217218357</v>
+        <v>1350.792172183569</v>
       </c>
       <c r="R13" t="n">
-        <v>1350.79217218357</v>
+        <v>1311.675936812854</v>
       </c>
       <c r="S13" t="n">
-        <v>1247.487955602165</v>
+        <v>1208.371720231449</v>
       </c>
       <c r="T13" t="n">
-        <v>1124.714548432751</v>
+        <v>1085.598313062035</v>
       </c>
       <c r="U13" t="n">
-        <v>947.9298549367587</v>
+        <v>908.8136195660426</v>
       </c>
       <c r="V13" t="n">
-        <v>797.6000965100887</v>
+        <v>758.4838611393725</v>
       </c>
       <c r="W13" t="n">
-        <v>621.8492410423953</v>
+        <v>582.7330056716789</v>
       </c>
       <c r="X13" t="n">
-        <v>501.0023229526785</v>
+        <v>461.8860875819619</v>
       </c>
       <c r="Y13" t="n">
-        <v>389.372710159863</v>
+        <v>350.2564747891463</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1490.767728542201</v>
+        <v>1131.767429129417</v>
       </c>
       <c r="C14" t="n">
-        <v>1490.767728542201</v>
+        <v>860.2392164771313</v>
       </c>
       <c r="D14" t="n">
-        <v>1228.349309784332</v>
+        <v>860.2392164771313</v>
       </c>
       <c r="E14" t="n">
-        <v>943.9691359053468</v>
+        <v>575.8590425981455</v>
       </c>
       <c r="F14" t="n">
-        <v>640.2234912304245</v>
+        <v>272.1133979232232</v>
       </c>
       <c r="G14" t="n">
-        <v>334.5250506995197</v>
+        <v>272.1133979232232</v>
       </c>
       <c r="H14" t="n">
-        <v>112.1093223117364</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="I14" t="n">
         <v>49.69766953543986</v>
       </c>
       <c r="J14" t="n">
-        <v>229.9046894574563</v>
+        <v>121.6962138082455</v>
       </c>
       <c r="K14" t="n">
-        <v>502.0430017859005</v>
+        <v>470.045061502239</v>
       </c>
       <c r="L14" t="n">
-        <v>849.9283748708467</v>
+        <v>817.9304345871853</v>
       </c>
       <c r="M14" t="n">
         <v>1243.167541123935</v>
       </c>
       <c r="N14" t="n">
-        <v>1621.49889981165</v>
+        <v>1621.498899811651</v>
       </c>
       <c r="O14" t="n">
-        <v>2034.711959933695</v>
+        <v>1926.503484284485</v>
       </c>
       <c r="P14" t="n">
-        <v>2371.077332038959</v>
+        <v>2262.868856389749</v>
       </c>
       <c r="Q14" t="n">
         <v>2465.509585725496</v>
@@ -5303,25 +5303,25 @@
         <v>2484.883476771993</v>
       </c>
       <c r="S14" t="n">
-        <v>2484.883476771993</v>
+        <v>2408.060047417255</v>
       </c>
       <c r="T14" t="n">
-        <v>2370.930076517911</v>
+        <v>2294.106647163173</v>
       </c>
       <c r="U14" t="n">
-        <v>2226.450286246813</v>
+        <v>2149.626856892074</v>
       </c>
       <c r="V14" t="n">
-        <v>2057.542031454568</v>
+        <v>1939.159401223619</v>
       </c>
       <c r="W14" t="n">
-        <v>2057.542031454568</v>
+        <v>1687.030017096128</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.542031454568</v>
+        <v>1415.405422632529</v>
       </c>
       <c r="Y14" t="n">
-        <v>1774.405722045313</v>
+        <v>1415.405422632529</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>845.5505760717306</v>
+        <v>845.550576071731</v>
       </c>
       <c r="C15" t="n">
-        <v>683.8469033126853</v>
+        <v>683.8469033126858</v>
       </c>
       <c r="D15" t="n">
-        <v>545.0082663028974</v>
+        <v>545.0082663028978</v>
       </c>
       <c r="E15" t="n">
-        <v>397.9802563597686</v>
+        <v>397.980256359769</v>
       </c>
       <c r="F15" t="n">
-        <v>263.286458309643</v>
+        <v>263.2864583096434</v>
       </c>
       <c r="G15" t="n">
-        <v>134.5579583329275</v>
+        <v>218.0178122986808</v>
       </c>
       <c r="H15" t="n">
-        <v>49.69766953543986</v>
+        <v>118.0799548453789</v>
       </c>
       <c r="I15" t="n">
         <v>49.69766953543986</v>
       </c>
       <c r="J15" t="n">
-        <v>49.69766953543986</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K15" t="n">
-        <v>270.6951321230865</v>
+        <v>339.4423686287347</v>
       </c>
       <c r="L15" t="n">
-        <v>636.5169772932021</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M15" t="n">
-        <v>1121.550330803429</v>
+        <v>1190.297567309077</v>
       </c>
       <c r="N15" t="n">
         <v>1632.815976926551</v>
       </c>
       <c r="O15" t="n">
-        <v>2025.015927710701</v>
+        <v>2025.015927710702</v>
       </c>
       <c r="P15" t="n">
         <v>2327.111846986399</v>
@@ -5379,22 +5379,22 @@
         <v>2484.883476771993</v>
       </c>
       <c r="R15" t="n">
-        <v>2425.099207866938</v>
+        <v>2425.099207866939</v>
       </c>
       <c r="S15" t="n">
         <v>2272.299720879679</v>
       </c>
       <c r="T15" t="n">
-        <v>2083.614617045664</v>
+        <v>2083.614617045665</v>
       </c>
       <c r="U15" t="n">
-        <v>1865.119824643974</v>
+        <v>1865.119824643975</v>
       </c>
       <c r="V15" t="n">
-        <v>1636.724202092308</v>
+        <v>1636.724202092309</v>
       </c>
       <c r="W15" t="n">
-        <v>1395.408333325618</v>
+        <v>1395.408333325619</v>
       </c>
       <c r="X15" t="n">
         <v>1197.491345203413</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>277.1066521196763</v>
+        <v>277.1066521196752</v>
       </c>
       <c r="C16" t="n">
-        <v>217.8962285962641</v>
+        <v>217.896228596263</v>
       </c>
       <c r="D16" t="n">
-        <v>217.8962285962641</v>
+        <v>175.2298814389333</v>
       </c>
       <c r="E16" t="n">
-        <v>190.9764697409153</v>
+        <v>175.2298814389333</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9764697409153</v>
+        <v>133.1547724796178</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4622671236727</v>
+        <v>74.64056986237529</v>
       </c>
       <c r="H16" t="n">
-        <v>83.49516791785392</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="I16" t="n">
         <v>49.69766953543986</v>
       </c>
       <c r="J16" t="n">
-        <v>99.0440456466813</v>
+        <v>99.04404564668127</v>
       </c>
       <c r="K16" t="n">
-        <v>240.8567090405355</v>
+        <v>240.8567090405354</v>
       </c>
       <c r="L16" t="n">
-        <v>449.6722640900057</v>
+        <v>449.6722640900056</v>
       </c>
       <c r="M16" t="n">
-        <v>675.8742458668182</v>
+        <v>675.874245866818</v>
       </c>
       <c r="N16" t="n">
-        <v>902.5050632656294</v>
+        <v>902.5050632656291</v>
       </c>
       <c r="O16" t="n">
         <v>1109.17718541053</v>
       </c>
       <c r="P16" t="n">
-        <v>1280.354144787879</v>
+        <v>1280.354144787878</v>
       </c>
       <c r="Q16" t="n">
-        <v>1350.79217218357</v>
+        <v>1350.792172183569</v>
       </c>
       <c r="R16" t="n">
-        <v>1311.675936812856</v>
+        <v>1311.675936812855</v>
       </c>
       <c r="S16" t="n">
-        <v>1208.371720231451</v>
+        <v>1208.37172023145</v>
       </c>
       <c r="T16" t="n">
-        <v>1085.598313062037</v>
+        <v>1085.598313062036</v>
       </c>
       <c r="U16" t="n">
-        <v>908.8136195660444</v>
+        <v>908.8136195660434</v>
       </c>
       <c r="V16" t="n">
-        <v>758.4838611393744</v>
+        <v>758.4838611393734</v>
       </c>
       <c r="W16" t="n">
-        <v>582.733005671681</v>
+        <v>582.7330056716801</v>
       </c>
       <c r="X16" t="n">
-        <v>461.8860875819641</v>
+        <v>461.8860875819632</v>
       </c>
       <c r="Y16" t="n">
-        <v>350.2564747891487</v>
+        <v>350.2564747891477</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>1328.402764043477</v>
       </c>
       <c r="C17" t="n">
-        <v>1118.859290984193</v>
+        <v>1118.859290984194</v>
       </c>
       <c r="D17" t="n">
-        <v>918.4256118193251</v>
+        <v>918.4256118193254</v>
       </c>
       <c r="E17" t="n">
-        <v>696.0301775333407</v>
+        <v>696.030177533341</v>
       </c>
       <c r="F17" t="n">
-        <v>454.2692724514199</v>
+        <v>454.2692724514201</v>
       </c>
       <c r="G17" t="n">
-        <v>210.5555715135166</v>
+        <v>210.555571513517</v>
       </c>
       <c r="H17" t="n">
-        <v>50.12458271873505</v>
+        <v>50.12458271873506</v>
       </c>
       <c r="I17" t="n">
         <v>49.69766953543986</v>
       </c>
       <c r="J17" t="n">
-        <v>290.6559327325569</v>
+        <v>121.6962138082455</v>
       </c>
       <c r="K17" t="n">
-        <v>699.756023701651</v>
+        <v>399.9144062821965</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.641396786597</v>
+        <v>747.7997793671427</v>
       </c>
       <c r="M17" t="n">
-        <v>1440.880563039685</v>
+        <v>1141.038945620231</v>
       </c>
       <c r="N17" t="n">
-        <v>1819.211921727401</v>
+        <v>1688.330023232258</v>
       </c>
       <c r="O17" t="n">
-        <v>2124.216506200235</v>
+        <v>1993.334607705092</v>
       </c>
       <c r="P17" t="n">
-        <v>2352.373402656288</v>
+        <v>2221.491504161145</v>
       </c>
       <c r="Q17" t="n">
-        <v>2446.805656342825</v>
+        <v>2484.883476771993</v>
       </c>
       <c r="R17" t="n">
         <v>2484.883476771993</v>
       </c>
       <c r="S17" t="n">
-        <v>2470.044787010255</v>
+        <v>2470.044787010256</v>
       </c>
       <c r="T17" t="n">
-        <v>2418.076126349175</v>
+        <v>2418.076126349176</v>
       </c>
       <c r="U17" t="n">
-        <v>2335.581075671078</v>
+        <v>2335.581075671079</v>
       </c>
       <c r="V17" t="n">
-        <v>2170.992087174928</v>
+        <v>2170.992087174929</v>
       </c>
       <c r="W17" t="n">
-        <v>1980.847442640438</v>
+        <v>1980.847442640439</v>
       </c>
       <c r="X17" t="n">
-        <v>1771.20758776984</v>
+        <v>1771.207587769841</v>
       </c>
       <c r="Y17" t="n">
-        <v>1550.056017953587</v>
+        <v>1550.056017953588</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>929.0104300374838</v>
+        <v>845.550576071731</v>
       </c>
       <c r="C18" t="n">
-        <v>767.3067572784386</v>
+        <v>683.8469033126858</v>
       </c>
       <c r="D18" t="n">
-        <v>628.4681202686506</v>
+        <v>545.0082663028978</v>
       </c>
       <c r="E18" t="n">
-        <v>481.4401103255219</v>
+        <v>397.980256359769</v>
       </c>
       <c r="F18" t="n">
         <v>346.7463122753962</v>
@@ -5592,22 +5592,22 @@
         <v>49.69766953543986</v>
       </c>
       <c r="J18" t="n">
-        <v>49.69766953543986</v>
+        <v>109.951816068546</v>
       </c>
       <c r="K18" t="n">
-        <v>270.6951321230865</v>
+        <v>339.4423686287347</v>
       </c>
       <c r="L18" t="n">
-        <v>636.5169772932021</v>
+        <v>705.2642137988503</v>
       </c>
       <c r="M18" t="n">
-        <v>1121.550330803429</v>
+        <v>1190.297567309077</v>
       </c>
       <c r="N18" t="n">
         <v>1632.815976926551</v>
       </c>
       <c r="O18" t="n">
-        <v>2025.015927710701</v>
+        <v>2025.015927710702</v>
       </c>
       <c r="P18" t="n">
         <v>2327.111846986399</v>
@@ -5616,28 +5616,28 @@
         <v>2484.883476771993</v>
       </c>
       <c r="R18" t="n">
-        <v>2425.099207866938</v>
+        <v>2425.099207866939</v>
       </c>
       <c r="S18" t="n">
         <v>2272.299720879679</v>
       </c>
       <c r="T18" t="n">
-        <v>2167.074471011417</v>
+        <v>2083.614617045665</v>
       </c>
       <c r="U18" t="n">
-        <v>1948.579678609727</v>
+        <v>1865.119824643975</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.184056058061</v>
+        <v>1636.724202092309</v>
       </c>
       <c r="W18" t="n">
-        <v>1478.868187291371</v>
+        <v>1395.408333325619</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.951199169166</v>
+        <v>1197.491345203413</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.429872818745</v>
+        <v>1004.970018852992</v>
       </c>
     </row>
     <row r="19">
@@ -5659,34 +5659,34 @@
         <v>49.69766953543986</v>
       </c>
       <c r="F19" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="G19" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="H19" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="I19" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="J19" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543986</v>
       </c>
       <c r="K19" t="n">
-        <v>89.93397998331939</v>
+        <v>83.30185728008328</v>
       </c>
       <c r="L19" t="n">
-        <v>190.5410593835789</v>
+        <v>183.9089366803428</v>
       </c>
       <c r="M19" t="n">
-        <v>308.5345655111806</v>
+        <v>301.9024428079445</v>
       </c>
       <c r="N19" t="n">
-        <v>426.956907260781</v>
+        <v>420.3247845575449</v>
       </c>
       <c r="O19" t="n">
-        <v>525.4205537564707</v>
+        <v>518.7884310532346</v>
       </c>
       <c r="P19" t="n">
         <v>588.3890374846085</v>
@@ -5732,37 +5732,37 @@
         <v>1118.859290984193</v>
       </c>
       <c r="D20" t="n">
-        <v>918.4256118193254</v>
+        <v>918.4256118193255</v>
       </c>
       <c r="E20" t="n">
-        <v>696.030177533341</v>
+        <v>696.0301775333411</v>
       </c>
       <c r="F20" t="n">
-        <v>454.2692724514201</v>
+        <v>454.2692724514202</v>
       </c>
       <c r="G20" t="n">
-        <v>210.5555715135168</v>
+        <v>210.555571513517</v>
       </c>
       <c r="H20" t="n">
         <v>50.12458271873506</v>
       </c>
       <c r="I20" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="J20" t="n">
         <v>121.6962138082455</v>
       </c>
       <c r="K20" t="n">
-        <v>530.7963047773396</v>
+        <v>361.8365858530283</v>
       </c>
       <c r="L20" t="n">
-        <v>1005.594082894168</v>
+        <v>709.7219589379745</v>
       </c>
       <c r="M20" t="n">
-        <v>1398.833249147256</v>
+        <v>1271.920844115374</v>
       </c>
       <c r="N20" t="n">
-        <v>1777.164607834972</v>
+        <v>1650.252202803089</v>
       </c>
       <c r="O20" t="n">
         <v>2082.169192307806</v>
@@ -5774,7 +5774,7 @@
         <v>2404.758342450396</v>
       </c>
       <c r="R20" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771994</v>
       </c>
       <c r="S20" t="n">
         <v>2470.044787010256</v>
@@ -5783,7 +5783,7 @@
         <v>2418.076126349176</v>
       </c>
       <c r="U20" t="n">
-        <v>2335.581075671079</v>
+        <v>2335.581075671078</v>
       </c>
       <c r="V20" t="n">
         <v>2170.992087174929</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>845.550576071731</v>
+        <v>845.5505760717315</v>
       </c>
       <c r="C21" t="n">
-        <v>683.8469033126858</v>
+        <v>683.8469033126862</v>
       </c>
       <c r="D21" t="n">
-        <v>545.0082663028978</v>
+        <v>545.0082663028983</v>
       </c>
       <c r="E21" t="n">
-        <v>397.980256359769</v>
+        <v>397.9802563597695</v>
       </c>
       <c r="F21" t="n">
-        <v>263.2864583096434</v>
+        <v>263.2864583096439</v>
       </c>
       <c r="G21" t="n">
-        <v>134.557958332928</v>
+        <v>134.5579583329285</v>
       </c>
       <c r="H21" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="I21" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="J21" t="n">
         <v>109.951816068546</v>
@@ -5844,19 +5844,19 @@
         <v>1701.563213432199</v>
       </c>
       <c r="O21" t="n">
-        <v>2093.76316421635</v>
+        <v>2025.015927710702</v>
       </c>
       <c r="P21" t="n">
-        <v>2395.859083492047</v>
+        <v>2327.1118469864</v>
       </c>
       <c r="Q21" t="n">
-        <v>2484.883476771993</v>
+        <v>2484.883476771994</v>
       </c>
       <c r="R21" t="n">
         <v>2425.099207866939</v>
       </c>
       <c r="S21" t="n">
-        <v>2272.299720879679</v>
+        <v>2272.29972087968</v>
       </c>
       <c r="T21" t="n">
         <v>2083.614617045665</v>
@@ -5871,7 +5871,7 @@
         <v>1395.408333325619</v>
       </c>
       <c r="X21" t="n">
-        <v>1197.491345203413</v>
+        <v>1197.491345203414</v>
       </c>
       <c r="Y21" t="n">
         <v>1004.970018852992</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="C22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="D22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="E22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="F22" t="n">
-        <v>49.69766953543986</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="G22" t="n">
-        <v>53.09914282538107</v>
+        <v>49.69766953543987</v>
       </c>
       <c r="H22" t="n">
         <v>56.32979223867598</v>
@@ -5953,7 +5953,7 @@
         <v>110.507625811725</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.86275261191089</v>
+        <v>60.8627526119109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1328.402764043478</v>
+        <v>1328.402764043477</v>
       </c>
       <c r="C23" t="n">
-        <v>1118.859290984194</v>
+        <v>1118.859290984193</v>
       </c>
       <c r="D23" t="n">
-        <v>918.4256118193264</v>
+        <v>918.4256118193255</v>
       </c>
       <c r="E23" t="n">
-        <v>696.030177533342</v>
+        <v>696.0301775333411</v>
       </c>
       <c r="F23" t="n">
-        <v>454.2692724514211</v>
+        <v>454.2692724514202</v>
       </c>
       <c r="G23" t="n">
-        <v>210.5555715135179</v>
+        <v>210.555571513517</v>
       </c>
       <c r="H23" t="n">
-        <v>50.12458271873508</v>
+        <v>50.12458271873503</v>
       </c>
       <c r="I23" t="n">
-        <v>49.69766953543989</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J23" t="n">
         <v>121.6962138082455</v>
       </c>
       <c r="K23" t="n">
-        <v>361.8365858530283</v>
+        <v>530.7963047773396</v>
       </c>
       <c r="L23" t="n">
-        <v>709.7219589379745</v>
+        <v>1047.641396786597</v>
       </c>
       <c r="M23" t="n">
-        <v>1102.961125191062</v>
+        <v>1440.880563039685</v>
       </c>
       <c r="N23" t="n">
-        <v>1481.292483878778</v>
+        <v>1819.211921727401</v>
       </c>
       <c r="O23" t="n">
-        <v>1955.256787275923</v>
+        <v>2124.216506200235</v>
       </c>
       <c r="P23" t="n">
-        <v>2183.413683731977</v>
+        <v>2352.373402656288</v>
       </c>
       <c r="Q23" t="n">
-        <v>2446.805656342825</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R23" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="S23" t="n">
-        <v>2470.044787010257</v>
+        <v>2470.044787010255</v>
       </c>
       <c r="T23" t="n">
-        <v>2418.076126349177</v>
+        <v>2418.076126349175</v>
       </c>
       <c r="U23" t="n">
-        <v>2335.58107567108</v>
+        <v>2335.581075671078</v>
       </c>
       <c r="V23" t="n">
-        <v>2170.99208717493</v>
+        <v>2170.992087174928</v>
       </c>
       <c r="W23" t="n">
-        <v>1980.84744264044</v>
+        <v>1980.847442640438</v>
       </c>
       <c r="X23" t="n">
-        <v>1771.207587769842</v>
+        <v>1771.20758776984</v>
       </c>
       <c r="Y23" t="n">
-        <v>1550.056017953589</v>
+        <v>1550.056017953587</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>845.5505760717319</v>
+        <v>845.5505760717301</v>
       </c>
       <c r="C24" t="n">
-        <v>683.8469033126867</v>
+        <v>683.8469033126848</v>
       </c>
       <c r="D24" t="n">
-        <v>545.0082663028987</v>
+        <v>545.0082663028969</v>
       </c>
       <c r="E24" t="n">
-        <v>397.98025635977</v>
+        <v>397.9802563597681</v>
       </c>
       <c r="F24" t="n">
-        <v>263.2864583096443</v>
+        <v>263.2864583096425</v>
       </c>
       <c r="G24" t="n">
-        <v>134.5579583329289</v>
+        <v>149.6355269887418</v>
       </c>
       <c r="H24" t="n">
-        <v>118.0799548453789</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="I24" t="n">
-        <v>49.69766953543989</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J24" t="n">
-        <v>109.951816068546</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4423686287347</v>
+        <v>279.1882220956285</v>
       </c>
       <c r="L24" t="n">
-        <v>705.2642137988503</v>
+        <v>645.0100672657441</v>
       </c>
       <c r="M24" t="n">
-        <v>1190.297567309077</v>
+        <v>1121.550330803428</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.815976926552</v>
+        <v>1632.81597692655</v>
       </c>
       <c r="O24" t="n">
-        <v>2025.015927710703</v>
+        <v>2025.015927710701</v>
       </c>
       <c r="P24" t="n">
-        <v>2327.1118469864</v>
+        <v>2327.111846986398</v>
       </c>
       <c r="Q24" t="n">
-        <v>2484.883476771994</v>
+        <v>2484.883476771992</v>
       </c>
       <c r="R24" t="n">
-        <v>2425.09920786694</v>
+        <v>2425.099207866938</v>
       </c>
       <c r="S24" t="n">
-        <v>2272.29972087968</v>
+        <v>2272.299720879678</v>
       </c>
       <c r="T24" t="n">
-        <v>2083.614617045665</v>
+        <v>2083.614617045664</v>
       </c>
       <c r="U24" t="n">
-        <v>1865.119824643976</v>
+        <v>1865.119824643974</v>
       </c>
       <c r="V24" t="n">
-        <v>1636.724202092309</v>
+        <v>1636.724202092308</v>
       </c>
       <c r="W24" t="n">
-        <v>1395.408333325619</v>
+        <v>1395.408333325618</v>
       </c>
       <c r="X24" t="n">
-        <v>1197.491345203414</v>
+        <v>1197.491345203412</v>
       </c>
       <c r="Y24" t="n">
-        <v>1004.970018852993</v>
+        <v>1004.970018852991</v>
       </c>
     </row>
     <row r="25">
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.69766953543989</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="C25" t="n">
-        <v>49.69766953543989</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="D25" t="n">
-        <v>49.69766953543989</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="E25" t="n">
-        <v>52.92831894873478</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="F25" t="n">
-        <v>52.92831894873478</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="G25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="H25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="I25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="J25" t="n">
-        <v>56.32979223867598</v>
+        <v>49.69766953543984</v>
       </c>
       <c r="K25" t="n">
-        <v>89.93397998331939</v>
+        <v>83.30185728008325</v>
       </c>
       <c r="L25" t="n">
-        <v>190.5410593835789</v>
+        <v>183.9089366803428</v>
       </c>
       <c r="M25" t="n">
-        <v>308.5345655111806</v>
+        <v>301.9024428079445</v>
       </c>
       <c r="N25" t="n">
-        <v>426.956907260781</v>
+        <v>420.3247845575449</v>
       </c>
       <c r="O25" t="n">
-        <v>525.4205537564707</v>
+        <v>518.7884310532346</v>
       </c>
       <c r="P25" t="n">
-        <v>588.3890374846085</v>
+        <v>581.7569147813724</v>
       </c>
       <c r="Q25" t="n">
         <v>588.3890374846085</v>
@@ -6181,16 +6181,16 @@
         <v>371.4809390168011</v>
       </c>
       <c r="V25" t="n">
-        <v>283.1359201831326</v>
+        <v>283.1359201831325</v>
       </c>
       <c r="W25" t="n">
-        <v>169.3698043084405</v>
+        <v>169.3698043084404</v>
       </c>
       <c r="X25" t="n">
         <v>110.507625811725</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.86275261191091</v>
+        <v>60.86275261191087</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1690.312431518094</v>
+        <v>1422.858215795353</v>
       </c>
       <c r="C26" t="n">
-        <v>1422.954597606668</v>
+        <v>1155.500381883926</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.706557589658</v>
+        <v>897.2523418669159</v>
       </c>
       <c r="E26" t="n">
-        <v>938.427027713291</v>
+        <v>880.1857536778532</v>
       </c>
       <c r="F26" t="n">
-        <v>638.8517617792277</v>
+        <v>580.6104877437899</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3236999891821</v>
+        <v>279.0824259537445</v>
       </c>
       <c r="H26" t="n">
-        <v>119.0783503422578</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="I26" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J26" t="n">
-        <v>245.1314844327525</v>
+        <v>245.1314844327526</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306618</v>
+        <v>597.5677203306623</v>
       </c>
       <c r="L26" t="n">
         <v>1057.748957268735</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.283987374949</v>
+        <v>1563.28398737495</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241752</v>
+        <v>2471.211658241753</v>
       </c>
       <c r="P26" t="n">
         <v>2811.664418550932</v>
@@ -6248,16 +6248,16 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R26" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S26" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T26" t="n">
-        <v>2859.417743213907</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U26" t="n">
-        <v>2719.108331683668</v>
+        <v>2719.108331683667</v>
       </c>
       <c r="V26" t="n">
         <v>2496.704982335375</v>
@@ -6266,10 +6266,10 @@
         <v>2248.745976948742</v>
       </c>
       <c r="X26" t="n">
-        <v>2248.745976948742</v>
+        <v>1981.291761226002</v>
       </c>
       <c r="Y26" t="n">
-        <v>1969.780046280347</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C27" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G27" t="n">
-        <v>229.1572190700612</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H27" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I27" t="n">
         <v>60.83707630682017</v>
@@ -6327,28 +6327,28 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R27" t="n">
-        <v>2519.698468604072</v>
+        <v>2504.985851143967</v>
       </c>
       <c r="S27" t="n">
-        <v>2366.898981616812</v>
+        <v>2352.186364156707</v>
       </c>
       <c r="T27" t="n">
-        <v>2178.213877782798</v>
+        <v>2163.501260322693</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W27" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X27" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="28">
@@ -6361,22 +6361,22 @@
         <v>358.478573190114</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075609</v>
+        <v>303.4385284075607</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910901</v>
+        <v>264.9425599910899</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081754</v>
+        <v>227.5094705081751</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897188</v>
+        <v>189.6047402897186</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2609164133353</v>
+        <v>135.260916413335</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837539</v>
+        <v>90.46419594837525</v>
       </c>
       <c r="I28" t="n">
         <v>60.83707630682017</v>
@@ -6385,19 +6385,19 @@
         <v>114.2708406219775</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197475</v>
+        <v>260.1708922197478</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731337</v>
+        <v>473.0738354731339</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538621</v>
+        <v>703.3632054538623</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565891</v>
+        <v>934.0814110565893</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.840921405405</v>
+        <v>1144.840921405406</v>
       </c>
       <c r="P28" t="n">
         <v>1320.10526898667</v>
@@ -6415,13 +6415,13 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321872</v>
+        <v>969.3336469321874</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463762</v>
+        <v>823.1742672463764</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195418</v>
+        <v>651.5937905195419</v>
       </c>
       <c r="X28" t="n">
         <v>534.917251170684</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1485.994656762844</v>
+        <v>1422.858215795352</v>
       </c>
       <c r="C29" t="n">
-        <v>1218.636822851418</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.636822851418</v>
+        <v>897.2523418669166</v>
       </c>
       <c r="E29" t="n">
-        <v>938.427027713291</v>
+        <v>617.0425467287898</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792277</v>
+        <v>362.3651380968658</v>
       </c>
       <c r="G29" t="n">
-        <v>337.3236999891821</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422578</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="I29" t="n">
         <v>60.83707630682017</v>
@@ -6464,7 +6464,7 @@
         <v>245.1314844327526</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306618</v>
+        <v>597.5677203306623</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6485,28 +6485,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>3032.337205694619</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
-        <v>2922.554184181397</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U29" t="n">
-        <v>2782.244772651157</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V29" t="n">
-        <v>2559.841423302865</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W29" t="n">
-        <v>2311.882417916232</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X29" t="n">
-        <v>2044.428202193492</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y29" t="n">
-        <v>1765.462271525096</v>
+        <v>1702.325830557605</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C30" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D30" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E30" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F30" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1572190700612</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I30" t="n">
         <v>60.83707630682017</v>
@@ -6564,28 +6564,28 @@
         <v>2564.770120049021</v>
       </c>
       <c r="R30" t="n">
-        <v>2519.698468604072</v>
+        <v>2504.985851143967</v>
       </c>
       <c r="S30" t="n">
-        <v>2366.898981616812</v>
+        <v>2352.186364156707</v>
       </c>
       <c r="T30" t="n">
-        <v>2178.213877782798</v>
+        <v>2163.501260322693</v>
       </c>
       <c r="U30" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W30" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X30" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="31">
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4785731901145</v>
+        <v>358.4785731901143</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075612</v>
+        <v>303.438528407561</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910903</v>
+        <v>264.9425599910901</v>
       </c>
       <c r="E31" t="n">
-        <v>227.5094705081756</v>
+        <v>227.5094705081751</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897191</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2609164133353</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837568</v>
+        <v>90.46419594837526</v>
       </c>
       <c r="I31" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219774</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197475</v>
+        <v>260.1708922197477</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731337</v>
+        <v>473.0738354731338</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538622</v>
+        <v>703.3632054538623</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565893</v>
+        <v>934.0814110565892</v>
       </c>
       <c r="O31" t="n">
         <v>1144.840921405405</v>
@@ -6649,22 +6649,22 @@
         <v>1260.550990115876</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.947961687322</v>
+        <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321879</v>
+        <v>969.3336469321877</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463769</v>
+        <v>823.1742672463766</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195424</v>
+        <v>651.5937905195422</v>
       </c>
       <c r="X31" t="n">
-        <v>534.9172511706845</v>
+        <v>534.9172511706843</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187279</v>
+        <v>427.4580171187278</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1545.026613203302</v>
+        <v>1545.026613203301</v>
       </c>
       <c r="C32" t="n">
-        <v>1305.833507158456</v>
+        <v>1305.833507158455</v>
       </c>
       <c r="D32" t="n">
         <v>1075.750195008025</v>
       </c>
       <c r="E32" t="n">
-        <v>823.7051277364784</v>
+        <v>823.7051277364781</v>
       </c>
       <c r="F32" t="n">
-        <v>552.2945896689948</v>
+        <v>552.2945896689946</v>
       </c>
       <c r="G32" t="n">
-        <v>278.9312557455289</v>
+        <v>278.9312557455287</v>
       </c>
       <c r="H32" t="n">
-        <v>88.85063396518424</v>
+        <v>88.85063396518414</v>
       </c>
       <c r="I32" t="n">
         <v>58.77408779632638</v>
       </c>
       <c r="J32" t="n">
-        <v>270.6727457042935</v>
+        <v>130.772632069132</v>
       </c>
       <c r="K32" t="n">
-        <v>580.9887736020521</v>
+        <v>441.0886599668895</v>
       </c>
       <c r="L32" t="n">
-        <v>928.8741466869984</v>
+        <v>928.8741466869973</v>
       </c>
       <c r="M32" t="n">
-        <v>1462.013426575248</v>
+        <v>1462.013426575247</v>
       </c>
       <c r="N32" t="n">
-        <v>1980.244898898125</v>
+        <v>1840.344785262962</v>
       </c>
       <c r="O32" t="n">
-        <v>2425.149597006121</v>
+        <v>2285.249483370958</v>
       </c>
       <c r="P32" t="n">
-        <v>2653.306493462174</v>
+        <v>2653.306493462173</v>
       </c>
       <c r="Q32" t="n">
-        <v>2887.638860783872</v>
+        <v>2887.638860783871</v>
       </c>
       <c r="R32" t="n">
         <v>2938.704389816319</v>
@@ -6734,16 +6734,16 @@
         <v>2700.453089758716</v>
       </c>
       <c r="V32" t="n">
-        <v>2506.214468277004</v>
+        <v>2506.214468277003</v>
       </c>
       <c r="W32" t="n">
-        <v>2286.420190756951</v>
+        <v>2286.42019075695</v>
       </c>
       <c r="X32" t="n">
-        <v>2047.130702900791</v>
+        <v>2047.13070290079</v>
       </c>
       <c r="Y32" t="n">
-        <v>1796.329500098975</v>
+        <v>1796.329500098974</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>938.0868482983705</v>
+        <v>923.3742308382659</v>
       </c>
       <c r="C33" t="n">
-        <v>776.3831755393252</v>
+        <v>761.6705580792207</v>
       </c>
       <c r="D33" t="n">
-        <v>637.5445385295372</v>
+        <v>622.8319210694327</v>
       </c>
       <c r="E33" t="n">
-        <v>490.5165285864084</v>
+        <v>475.8039111263039</v>
       </c>
       <c r="F33" t="n">
-        <v>355.8227305362827</v>
+        <v>341.1101130761783</v>
       </c>
       <c r="G33" t="n">
-        <v>227.0942305595673</v>
+        <v>212.3816130994629</v>
       </c>
       <c r="H33" t="n">
-        <v>127.1563731062654</v>
+        <v>112.4437556461609</v>
       </c>
       <c r="I33" t="n">
         <v>58.77408779632638</v>
@@ -6801,28 +6801,28 @@
         <v>2562.707131538528</v>
       </c>
       <c r="R33" t="n">
-        <v>2517.635480093578</v>
+        <v>2502.922862633473</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.835993106318</v>
+        <v>2350.123375646214</v>
       </c>
       <c r="T33" t="n">
-        <v>2176.150889272304</v>
+        <v>2161.438271812199</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.656096870614</v>
+        <v>1942.943479410509</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.260474318948</v>
+        <v>1714.547856858843</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.944605552258</v>
+        <v>1473.231988092153</v>
       </c>
       <c r="X33" t="n">
-        <v>1290.027617430052</v>
+        <v>1275.314999969948</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.506291079631</v>
+        <v>1082.793673619527</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.2624896135621</v>
+        <v>159.2624896135615</v>
       </c>
       <c r="C34" t="n">
-        <v>132.3871726975885</v>
+        <v>132.387172697588</v>
       </c>
       <c r="D34" t="n">
-        <v>122.0559321476974</v>
+        <v>122.055932147697</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7875705313624</v>
+        <v>112.787570531362</v>
       </c>
       <c r="F34" t="n">
-        <v>103.0475681794856</v>
+        <v>103.0475681794854</v>
       </c>
       <c r="G34" t="n">
-        <v>76.86847216968177</v>
+        <v>76.86847216968158</v>
       </c>
       <c r="H34" t="n">
-        <v>60.23647957130172</v>
+        <v>60.23647957130163</v>
       </c>
       <c r="I34" t="n">
         <v>58.77408779632638</v>
       </c>
       <c r="J34" t="n">
-        <v>139.8121018935185</v>
+        <v>58.77408779632638</v>
       </c>
       <c r="K34" t="n">
-        <v>313.3164032733233</v>
+        <v>92.37827554096978</v>
       </c>
       <c r="L34" t="n">
-        <v>413.9234826735828</v>
+        <v>302.054293092673</v>
       </c>
       <c r="M34" t="n">
-        <v>531.9169888011845</v>
+        <v>420.0477992202748</v>
       </c>
       <c r="N34" t="n">
-        <v>650.3393305507849</v>
+        <v>538.4701409698752</v>
       </c>
       <c r="O34" t="n">
-        <v>878.9635664823699</v>
+        <v>776.8339011007264</v>
       </c>
       <c r="P34" t="n">
-        <v>941.9320502105077</v>
+        <v>839.8023848288642</v>
       </c>
       <c r="Q34" t="n">
-        <v>941.9320502105077</v>
+        <v>941.9320502105063</v>
       </c>
       <c r="R34" t="n">
-        <v>935.150921447232</v>
+        <v>935.1509214472308</v>
       </c>
       <c r="S34" t="n">
-        <v>864.1818114732657</v>
+        <v>864.1818114732645</v>
       </c>
       <c r="T34" t="n">
-        <v>773.7435109112907</v>
+        <v>773.7435109112895</v>
       </c>
       <c r="U34" t="n">
-        <v>629.2939240227367</v>
+        <v>629.2939240227356</v>
       </c>
       <c r="V34" t="n">
-        <v>511.2992722035054</v>
+        <v>511.2992722035045</v>
       </c>
       <c r="W34" t="n">
-        <v>367.8835233432507</v>
+        <v>367.8835233432498</v>
       </c>
       <c r="X34" t="n">
-        <v>279.3717118609726</v>
+        <v>279.3717118609718</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.0772056755958</v>
+        <v>200.0772056755951</v>
       </c>
     </row>
     <row r="35">
@@ -6914,61 +6914,61 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478543</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614934</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791959</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.1248745409162</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575747</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>527.7073651707066</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N35" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O35" t="n">
-        <v>1952.16784766929</v>
+        <v>2232.444567961696</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.5005000384</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.611879242174</v>
+        <v>2535.611879242173</v>
       </c>
       <c r="T35" t="n">
-        <v>2479.060069480718</v>
+        <v>2479.060069480717</v>
       </c>
       <c r="U35" t="n">
-        <v>2391.981869702244</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
         <v>2222.809732105717</v>
@@ -6977,10 +6977,10 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.858934499876</v>
+        <v>1813.858934499875</v>
       </c>
       <c r="Y35" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208575</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>66.12215891288226</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208575</v>
+        <v>65.00954678826453</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208575</v>
+        <v>65.00954678826453</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208575</v>
+        <v>88.14391746548213</v>
       </c>
       <c r="J37" t="n">
-        <v>97.31943502373917</v>
+        <v>88.14391746548213</v>
       </c>
       <c r="K37" t="n">
-        <v>130.9236227683826</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L37" t="n">
-        <v>231.5307021686421</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7169,28 +7169,28 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>2116.635622160323</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P38" t="n">
-        <v>2344.792518616376</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
         <v>2479.400528215969</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419374</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G39" t="n">
         <v>219.4208171253267</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,22 +7275,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
         <v>1267.641586535707</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J40" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K40" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L40" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>349.5242082962438</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9465500458442</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>566.4101965415339</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7409,16 +7409,16 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>163.2749745479474</v>
       </c>
       <c r="K41" t="n">
-        <v>363.2395906796742</v>
+        <v>403.4153465927301</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>751.3007196776764</v>
       </c>
       <c r="M41" t="n">
-        <v>1104.364130017708</v>
+        <v>1144.539885930764</v>
       </c>
       <c r="N41" t="n">
         <v>1522.87124461848</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7549,37 +7549,37 @@
         <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>59.16357979572506</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>59.16357979572506</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>74.18506434652159</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G43" t="n">
-        <v>73.07245222190386</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>73.07245222190386</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
         <v>565.2975844169162</v>
@@ -7628,40 +7628,40 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575752</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>527.7073651707065</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M44" t="n">
-        <v>1144.539885930764</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N44" t="n">
         <v>1687.339019109512</v>
       </c>
       <c r="O44" t="n">
-        <v>2156.811378073378</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P44" t="n">
         <v>2384.968274529432</v>
@@ -7691,7 +7691,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.90950739287317</v>
+        <v>52.90950739287324</v>
       </c>
       <c r="C46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5844139977867</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="F46" t="n">
-        <v>81.60589854858323</v>
+        <v>52.21328648670352</v>
       </c>
       <c r="G46" t="n">
-        <v>80.4932864239655</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>88.75993133416415</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>96.20682289912145</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>129.8110106437649</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
-        <v>230.4180900440244</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4115961716261</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>466.8339379212265</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>565.2975844169162</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>628.266068145054</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>628.266068145054</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="R46" t="n">
-        <v>628.266068145054</v>
+        <v>628.2660681450546</v>
       </c>
       <c r="S46" t="n">
-        <v>582.3634420562738</v>
+        <v>582.3634420562744</v>
       </c>
       <c r="T46" t="n">
-        <v>516.991625379485</v>
+        <v>516.9916253794854</v>
       </c>
       <c r="U46" t="n">
-        <v>397.608522376117</v>
+        <v>397.6085223761174</v>
       </c>
       <c r="V46" t="n">
-        <v>304.6803544420719</v>
+        <v>304.6803544420723</v>
       </c>
       <c r="W46" t="n">
-        <v>186.3310894670033</v>
+        <v>186.3310894670036</v>
       </c>
       <c r="X46" t="n">
-        <v>122.8857618699114</v>
+        <v>122.8857618699116</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.65773956972072</v>
+        <v>68.65773956972086</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>421.3890363425141</v>
+        <v>319.2815242069627</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7994,10 +7994,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P2" t="n">
-        <v>411.6169233222612</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,28 +8055,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>447.1780189202415</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>606.2309859515262</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>331.6080202111065</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>411.6169233222612</v>
+        <v>316.2308084873758</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,7 +8292,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8301,16 +8301,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>131.8490822927911</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>606.2309859515262</v>
+        <v>376.948104301228</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8532,13 +8532,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>217.0424937332492</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8550,7 +8550,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.6588210205949</v>
+        <v>203.6588210205953</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>335.2259293562087</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>553.7034336106115</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>335.2259293562087</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>553.7034336106115</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9492,13 +9492,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>442.5793620237406</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>203.6588210205953</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,10 +9723,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>596.8377041148561</v>
       </c>
       <c r="N24" t="n">
-        <v>553.7034336106124</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466193</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>280.8016135680806</v>
+        <v>16.64705176887889</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>90.45847455386526</v>
+        <v>259.7942345702904</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>281.536372140196</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>300.7081882281732</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.78753624853374</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>268.9083485189632</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>280.304946315162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>42.23968368575669</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.6543578697223</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22.73170674587714</v>
       </c>
       <c r="I13" t="n">
-        <v>18.05148294348987</v>
+        <v>33.45952339859005</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.72507301700722</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>268.8129305257623</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>259.7942345702904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>302.6414561255956</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.78753624853364</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.05519506119123</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>57.08881856393664</v>
+        <v>15.9452096964894</v>
       </c>
       <c r="W14" t="n">
-        <v>249.6080902862166</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>268.9083485189632</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>280.3049463151621</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>42.23968368575655</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>14.53687227474154</v>
+        <v>41.18743354153604</v>
       </c>
       <c r="F16" t="n">
-        <v>41.6543578697223</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.78395689009525</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>33.45952339858995</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>53.39096260914221</v>
+        <v>260.5117748795734</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24683,22 +24683,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>44.4488787291173</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.50507655781537</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>824696.9006065399</v>
+        <v>824696.9006065397</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>824696.9006065399</v>
+        <v>824696.9006065398</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>883879.6364352361</v>
+        <v>883879.6364352359</v>
       </c>
     </row>
     <row r="11">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>441383.8347841545</v>
+        <v>441383.8347841547</v>
       </c>
       <c r="C2" t="n">
-        <v>441383.8347841547</v>
+        <v>441383.8347841546</v>
       </c>
       <c r="D2" t="n">
-        <v>441383.8347841545</v>
+        <v>441383.8347841546</v>
       </c>
       <c r="E2" t="n">
         <v>397895.4214353978</v>
       </c>
       <c r="F2" t="n">
-        <v>397895.4214353977</v>
+        <v>397895.4214353978</v>
       </c>
       <c r="G2" t="n">
         <v>441383.8347841547</v>
       </c>
       <c r="H2" t="n">
-        <v>441383.8347841548</v>
+        <v>441383.8347841547</v>
       </c>
       <c r="I2" t="n">
-        <v>441383.8347841545</v>
+        <v>441383.8347841547</v>
       </c>
       <c r="J2" t="n">
-        <v>426821.1647664408</v>
+        <v>426821.1647664405</v>
       </c>
       <c r="K2" t="n">
         <v>426821.1647664406</v>
@@ -26347,7 +26347,7 @@
         <v>441383.8347841543</v>
       </c>
       <c r="N2" t="n">
-        <v>441383.8347841543</v>
+        <v>441383.8347841545</v>
       </c>
       <c r="O2" t="n">
         <v>441383.8347841544</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8010.3265126836</v>
+        <v>8010.326512683565</v>
       </c>
       <c r="E3" t="n">
-        <v>116080.0978984154</v>
+        <v>116080.0978984153</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>49091.91375765709</v>
+        <v>49091.91375765712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>208779.5291838294</v>
+        <v>208779.5291838295</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>71398.37822798823</v>
+        <v>71398.37822798836</v>
       </c>
       <c r="M3" t="n">
-        <v>19852.65523706741</v>
+        <v>19852.65523706735</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41652.2186489099</v>
+        <v>41652.21864890979</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203617.9403432548</v>
+        <v>203617.9403432547</v>
       </c>
       <c r="C4" t="n">
-        <v>203617.9403432548</v>
+        <v>203617.9403432547</v>
       </c>
       <c r="D4" t="n">
         <v>196979.4332140584</v>
       </c>
       <c r="E4" t="n">
-        <v>145858.0124406254</v>
+        <v>145858.0124406253</v>
       </c>
       <c r="F4" t="n">
         <v>145858.0124406254</v>
@@ -26433,10 +26433,10 @@
         <v>188788.6282682266</v>
       </c>
       <c r="H4" t="n">
+        <v>188788.6282682266</v>
+      </c>
+      <c r="I4" t="n">
         <v>188788.6282682265</v>
-      </c>
-      <c r="I4" t="n">
-        <v>188788.6282682266</v>
       </c>
       <c r="J4" t="n">
         <v>173576.2621260966</v>
@@ -26448,13 +26448,13 @@
         <v>187786.7484954251</v>
       </c>
       <c r="M4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="O4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="P4" t="n">
         <v>187302.9854962235</v>
@@ -26467,40 +26467,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63998.16336893612</v>
+        <v>63998.16336893613</v>
       </c>
       <c r="C5" t="n">
-        <v>63998.16336893612</v>
+        <v>63998.16336893613</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>46959.09585638227</v>
+        <v>46959.09585638226</v>
       </c>
       <c r="F5" t="n">
         <v>46959.09585638227</v>
       </c>
       <c r="G5" t="n">
-        <v>52117.98097849786</v>
+        <v>52117.98097849787</v>
       </c>
       <c r="H5" t="n">
         <v>52117.98097849787</v>
       </c>
       <c r="I5" t="n">
-        <v>52117.98097849789</v>
+        <v>52117.98097849786</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729293</v>
+        <v>55772.13857729292</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729293</v>
+        <v>55772.13857729292</v>
       </c>
       <c r="L5" t="n">
         <v>56548.37001126299</v>
       </c>
       <c r="M5" t="n">
-        <v>52802.81689264638</v>
+        <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
         <v>52802.81689264637</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6368.482586963903</v>
+        <v>6368.482586964034</v>
       </c>
       <c r="C6" t="n">
         <v>173767.7310719638</v>
@@ -26528,40 +26528,40 @@
         <v>170828.0404205012</v>
       </c>
       <c r="E6" t="n">
-        <v>88998.21523997464</v>
+        <v>88809.13518193684</v>
       </c>
       <c r="F6" t="n">
-        <v>205078.31313839</v>
+        <v>204889.233080352</v>
       </c>
       <c r="G6" t="n">
         <v>151385.3117797732</v>
       </c>
       <c r="H6" t="n">
-        <v>200477.2255374304</v>
+        <v>200477.2255374302</v>
       </c>
       <c r="I6" t="n">
-        <v>200477.2255374301</v>
+        <v>200477.2255374303</v>
       </c>
       <c r="J6" t="n">
-        <v>-11306.76512077817</v>
+        <v>-11370.08107737727</v>
       </c>
       <c r="K6" t="n">
-        <v>197472.7640630511</v>
+        <v>197409.4481064523</v>
       </c>
       <c r="L6" t="n">
-        <v>125650.338049478</v>
+        <v>125650.3380494778</v>
       </c>
       <c r="M6" t="n">
-        <v>181425.377158217</v>
+        <v>181425.3771582171</v>
       </c>
       <c r="N6" t="n">
-        <v>201278.0323952843</v>
+        <v>201278.0323952846</v>
       </c>
       <c r="O6" t="n">
-        <v>159625.8137463746</v>
+        <v>159625.8137463747</v>
       </c>
       <c r="P6" t="n">
-        <v>201278.0323952845</v>
+        <v>201278.0323952846</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="F2" t="n">
         <v>109.3014905547583</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.515844883818</v>
       </c>
       <c r="C4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.515844883818</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>621.2208691929982</v>
+        <v>621.2208691929983</v>
       </c>
       <c r="F4" t="n">
-        <v>621.2208691929982</v>
+        <v>621.2208691929983</v>
       </c>
       <c r="G4" t="n">
-        <v>621.2208691929982</v>
+        <v>621.2208691929983</v>
       </c>
       <c r="H4" t="n">
-        <v>621.2208691929983</v>
+        <v>621.2208691929984</v>
       </c>
       <c r="I4" t="n">
-        <v>621.2208691929985</v>
+        <v>621.2208691929981</v>
       </c>
       <c r="J4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.463453835252</v>
       </c>
       <c r="K4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.463453835252</v>
       </c>
       <c r="L4" t="n">
-        <v>734.6760974540798</v>
+        <v>734.6760974540797</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260718</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>61.36489219707136</v>
+        <v>61.3648921970714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>52.06527331113737</v>
+        <v>52.06527331113725</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>89.24797278498529</v>
+        <v>89.24797278498545</v>
       </c>
       <c r="M2" t="n">
-        <v>24.81581904633427</v>
+        <v>24.81581904633418</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.06527331113737</v>
+        <v>52.06527331113725</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.515844883818</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.78735638117246</v>
+        <v>25.78735638117234</v>
       </c>
       <c r="E4" t="n">
-        <v>95.91766792800786</v>
+        <v>95.91766792800797</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260723</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>61.36489219707136</v>
+        <v>61.3648921970714</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.06527331113737</v>
+        <v>52.06527331113725</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>499.5158448838179</v>
+        <v>499.515844883818</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.78735638117246</v>
+        <v>25.78735638117234</v>
       </c>
       <c r="M4" t="n">
-        <v>95.91766792800786</v>
+        <v>95.91766792800797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>67.16353344763795</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.97081884715374</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>54.15407045622243</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>99.57597874056978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>3.134845914427927</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27558,7 +27558,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -27597,10 +27597,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>133.5226877096453</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>300.8298038839202</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>143.8381091760976</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>112.5166029613402</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>56.41545813422877</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>91.52075517051695</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -27822,7 +27822,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27840,7 +27840,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>162.7767707936835</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>20.96071941762619</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>328.7200816555956</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>70.65759891194338</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>9.321009872178507</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>154.4394336288325</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28029,10 +28029,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>117.8988559826714</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28074,7 +28074,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,37 +28087,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="C11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="D11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="E11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="F11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="G11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="H11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="I11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="J11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="K11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="L11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>32.32115180167938</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.32115180167794</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="S11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="T11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="U11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="V11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="W11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="X11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="Y11" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
     </row>
     <row r="12">
@@ -28178,13 +28178,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>14.92679296925573</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>14.92679296925613</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="C13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="D13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="E13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="F13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="G13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="H13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="I13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="J13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="K13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="L13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="M13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="N13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="O13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="P13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="R13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="S13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="T13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="U13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="V13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="W13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="X13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
       <c r="Y13" t="n">
-        <v>109.3014905547583</v>
+        <v>109.3014905547582</v>
       </c>
     </row>
     <row r="14">
@@ -28348,28 +28348,28 @@
         <v>109.3014905547583</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>109.3014905547583</v>
       </c>
-      <c r="K14" t="n">
-        <v>32.32115180167821</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>32.3211518016783</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>109.3014905547583</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>109.3014905547583</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>109.3014905547583</v>
       </c>
       <c r="R14" t="n">
         <v>109.3014905547583</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>82.62525542609531</v>
       </c>
       <c r="H15" t="n">
-        <v>14.92679296925613</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28585,31 +28585,31 @@
         <v>170.6663827518297</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>38.46244487794766</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>170.6663827518297</v>
       </c>
-      <c r="K17" t="n">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>170.6663827518297</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
-        <v>128.1943485170524</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>170.6663827518297</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82.62525542609532</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>82.62525542609579</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>157.6549622661333</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>167.2305511458285</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>6.699113841652604</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
@@ -28825,19 +28825,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>170.6663827518297</v>
       </c>
-      <c r="L20" t="n">
-        <v>128.1943485170528</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>128.1943485170532</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>14.9267929692557</v>
+        <v>14.92679296925525</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -28971,10 +28971,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>170.6663827518297</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>161.0422010041703</v>
+        <v>164.4780326101715</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -29062,10 +29062,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.6663827518297</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,16 +29074,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>170.6663827518297</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.6663827518297</v>
+        <v>38.46244487794684</v>
       </c>
       <c r="R23" t="n">
-        <v>128.1943485170538</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>170.6663827518297</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14.92679296925655</v>
       </c>
       <c r="H24" t="n">
-        <v>82.62525542609443</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29202,13 +29202,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>153.7522063319458</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>170.6663827518297</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
         <v>157.7789187685189</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>44.85108177450044</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -29317,7 +29317,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082089</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
         <v>113.4301655082087</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K28" t="n">
-        <v>113.4301655082087</v>
+        <v>113.430165508209</v>
       </c>
       <c r="L28" t="n">
         <v>113.4301655082087</v>
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="C32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="D32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="E32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="F32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="G32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="H32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="I32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="J32" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>70.88450086159176</v>
+        <v>70.88450086159062</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="M32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="N32" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="R32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="S32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="T32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="U32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="V32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="W32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="X32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
     </row>
     <row r="33">
@@ -29846,7 +29846,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.5654912855034</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="C34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="D34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="E34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="F34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="G34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="I34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="J34" t="n">
-        <v>141.3132460961227</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>141.3132460961227</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>110.1706445974179</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>131.4753428645407</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="R34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="S34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="T34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="U34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="V34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="W34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="X34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.3132460961227</v>
+        <v>141.3132460961228</v>
       </c>
     </row>
     <row r="35">
@@ -30010,28 +30010,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>116.9787331327002</v>
+      </c>
+      <c r="N35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P35" t="n">
-        <v>40.58157162934964</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.56549128550327</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30162,13 +30162,13 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J37" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>8.144348922867991</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30244,28 +30244,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>40.58157162934901</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
+      <c r="O38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>40.5815716293491</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>166.1290651424569</v>
@@ -30311,10 +30311,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>14.5654912855033</v>
       </c>
       <c r="G39" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30402,7 +30402,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q40" t="n">
         <v>38.15196793284785</v>
@@ -30481,7 +30481,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>40.58157162934948</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>40.58157162934947</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30621,13 +30621,13 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>159.6855231633829</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>166.1290651424569</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
@@ -30636,7 +30636,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>45.56176619902595</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30721,22 +30721,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>40.58157162934953</v>
       </c>
       <c r="M44" t="n">
-        <v>40.58157162934901</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="O44" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30861,19 +30861,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>166.1290651424569</v>
+        <v>151.6127747272214</v>
       </c>
       <c r="F46" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H46" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>150.2831266452243</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>83.71373413187447</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -34699,7 +34699,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>242.5660323684674</v>
+        <v>140.458520232916</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34714,10 +34714,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P2" t="n">
-        <v>223.7401142711047</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>334.6025853490937</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>499.5158448838179</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>222.7538141869631</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>223.7401142711047</v>
+        <v>128.3539994362193</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35021,16 +35021,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>16.36517973115117</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>499.5158448838179</v>
+        <v>270.2329632335197</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>101.5585911716093</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35270,7 +35270,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.0272928505216</v>
+        <v>182.0272928505215</v>
       </c>
       <c r="K11" t="n">
-        <v>351.8675229232258</v>
+        <v>351.8675229232256</v>
       </c>
       <c r="L11" t="n">
-        <v>460.7008573072293</v>
+        <v>460.7008573072292</v>
       </c>
       <c r="M11" t="n">
         <v>397.2112790435232</v>
@@ -35422,16 +35422,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>340.4065906631278</v>
       </c>
       <c r="P11" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>127.7072666365638</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>19.56958691565316</v>
+        <v>19.56958691565302</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.92362957570236</v>
+        <v>89.92362957570283</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.84482435478935</v>
+        <v>49.8448243547892</v>
       </c>
       <c r="K13" t="n">
-        <v>143.2451145392466</v>
+        <v>143.2451145392465</v>
       </c>
       <c r="L13" t="n">
-        <v>210.924803080273</v>
+        <v>210.9248030802729</v>
       </c>
       <c r="M13" t="n">
-        <v>228.4868502796086</v>
+        <v>228.4868502796084</v>
       </c>
       <c r="N13" t="n">
-        <v>228.9200175745567</v>
+        <v>228.9200175745565</v>
       </c>
       <c r="O13" t="n">
-        <v>208.7597193382833</v>
+        <v>208.7597193382831</v>
       </c>
       <c r="P13" t="n">
-        <v>172.9060195730793</v>
+        <v>172.9060195730792</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.14952262191049</v>
+        <v>71.14952262191035</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>182.0272928505216</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>274.8871841701456</v>
+        <v>351.8675229232257</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>429.5324308452015</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>417.3869294162068</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>339.7630021265293</v>
+        <v>339.7630021265292</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488586</v>
+        <v>204.6876053896441</v>
       </c>
       <c r="R14" t="n">
-        <v>19.56958691565316</v>
+        <v>19.56958691565312</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>223.229760189542</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>446.9882925429032</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.84482435478935</v>
+        <v>49.8448243547893</v>
       </c>
       <c r="K16" t="n">
         <v>143.2451145392466</v>
@@ -35811,19 +35811,19 @@
         <v>210.924803080273</v>
       </c>
       <c r="M16" t="n">
-        <v>228.4868502796086</v>
+        <v>228.4868502796085</v>
       </c>
       <c r="N16" t="n">
         <v>228.9200175745567</v>
       </c>
       <c r="O16" t="n">
-        <v>208.7597193382833</v>
+        <v>208.7597193382832</v>
       </c>
       <c r="P16" t="n">
         <v>172.9060195730793</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.14952262191049</v>
+        <v>71.14952262191045</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>243.392185047593</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>413.2324151202971</v>
+        <v>281.0284772464151</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
@@ -35893,7 +35893,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>552.819270315179</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35902,10 +35902,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>266.0524975867156</v>
       </c>
       <c r="R17" t="n">
-        <v>38.46244487794726</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>223.229760189542</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -35972,7 +35972,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>446.9882925429032</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36027,7 +36027,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.699113841652648</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>63.604529018321</v>
+        <v>70.30364285997361</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>413.2324151202971</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>479.5937152695238</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>567.8776617953529</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>436.2797873785017</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
@@ -36212,13 +36212,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>396.1615664486372</v>
+        <v>326.7199134126295</v>
       </c>
       <c r="P21" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.92362957570283</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36267,10 +36267,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.435831606001216</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.263282235651427</v>
+        <v>6.699113841652633</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5660323684674</v>
+        <v>413.2324151202971</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>522.0657495043006</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>478.7518216132781</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.0524975867156</v>
+        <v>133.8485597128327</v>
       </c>
       <c r="R23" t="n">
-        <v>38.46244487794863</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36443,10 +36443,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>481.3538015532162</v>
       </c>
       <c r="N24" t="n">
-        <v>446.9882925429041</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
@@ -36498,13 +36498,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.263282235651405</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.435831606001216</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>6.69911384165259</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>343.8916770799797</v>
       </c>
       <c r="Q26" t="n">
-        <v>208.8162803430947</v>
+        <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
         <v>23.69826186910355</v>
@@ -36753,7 +36753,7 @@
         <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
-        <v>147.373789492697</v>
+        <v>147.3737894926973</v>
       </c>
       <c r="L28" t="n">
         <v>215.0534780337234</v>
@@ -36844,7 +36844,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O29" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P29" t="n">
         <v>343.8916770799797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -36996,19 +36996,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M31" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N31" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.039048391886</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>313.4505332300592</v>
+        <v>313.4505332300581</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>492.7126128485937</v>
       </c>
       <c r="M32" t="n">
         <v>538.5245251396459</v>
       </c>
       <c r="N32" t="n">
-        <v>523.4661336594719</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
-        <v>449.3986849575711</v>
+        <v>449.3986849575712</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>371.7747576678937</v>
       </c>
       <c r="Q32" t="n">
-        <v>236.6993609310085</v>
+        <v>236.6993609310086</v>
       </c>
       <c r="R32" t="n">
-        <v>51.58134245701748</v>
+        <v>51.58134245701757</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.85657989615368</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>175.256870080611</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>211.7939571229326</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
@@ -37239,13 +37239,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>230.9335716480656</v>
+        <v>240.7714748796477</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>103.1612781632749</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762234</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>271.0430832011206</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,13 +37458,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J37" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>33.9436239844883</v>
+        <v>42.08797290735629</v>
       </c>
       <c r="L37" t="n">
         <v>101.6233125255146</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728722</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.967686464235</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>76.39716150335175</v>
@@ -37631,7 +37631,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789111</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.68561682995296</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>33.9436239844883</v>
@@ -37716,7 +37716,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>113.3073739251128</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
@@ -37789,7 +37789,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>422.7344591926987</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
@@ -37917,13 +37917,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>8.144348922867996</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>15.17321671797629</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45822878352493</v>
+        <v>145.0199949825509</v>
       </c>
       <c r="P43" t="n">
         <v>63.604529018321</v>
@@ -38017,28 +38017,28 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109243</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>391.9809383818205</v>
       </c>
       <c r="M44" t="n">
-        <v>437.7928506728722</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335175</v>
+        <v>76.3971615033517</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38157,19 +38157,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.6401410461626</v>
+        <v>1.123850630927054</v>
       </c>
       <c r="F46" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>7.522112691876059</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>45.56176619902661</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
